--- a/jpcore-r4/feature/swg5-set_ValueSets2maxDoses/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-set_ValueSets2maxDoses/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13334" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13329" uniqueCount="1298">
   <si>
     <t>Property</t>
   </si>
@@ -33592,28 +33592,26 @@
         <v>80</v>
       </c>
       <c r="R256" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S256" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T256" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U256" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V256" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W256" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X256" s="2"/>
+      <c r="Y256" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S256" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T256" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U256" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V256" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W256" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X256" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y256" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>80</v>
@@ -34514,28 +34512,26 @@
         <v>80</v>
       </c>
       <c r="R264" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S264" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T264" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U264" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V264" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W264" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X264" s="2"/>
+      <c r="Y264" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S264" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T264" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U264" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V264" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W264" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X264" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y264" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>80</v>
@@ -35438,28 +35434,26 @@
         <v>80</v>
       </c>
       <c r="R272" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S272" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T272" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U272" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V272" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W272" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X272" s="2"/>
+      <c r="Y272" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S272" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T272" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U272" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V272" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W272" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X272" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y272" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>80</v>
@@ -36362,28 +36356,26 @@
         <v>80</v>
       </c>
       <c r="R280" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S280" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T280" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U280" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V280" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W280" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X280" s="2"/>
+      <c r="Y280" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S280" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T280" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U280" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V280" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W280" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X280" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y280" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>80</v>
@@ -39436,28 +39428,26 @@
         <v>80</v>
       </c>
       <c r="R307" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S307" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T307" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U307" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V307" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W307" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X307" s="2"/>
+      <c r="Y307" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="S307" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T307" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U307" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V307" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W307" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X307" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y307" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z307" t="s" s="2">
         <v>80</v>
